--- a/output/kruskal_wallis_test/anova_Q16_Escola.xlsx
+++ b/output/kruskal_wallis_test/anova_Q16_Escola.xlsx
@@ -365,13 +365,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98.1510286276094</v>
+        <v>98.3815397765577</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0000000000000000000000387659319857191</v>
+        <v>0.0000000000000000000000345060991216868</v>
       </c>
     </row>
   </sheetData>
